--- a/Code/Results/Cases/Case_4_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_253/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9960659197330692</v>
+        <v>1.065281189239591</v>
       </c>
       <c r="D2">
-        <v>1.015210228942974</v>
+        <v>1.063798792257822</v>
       </c>
       <c r="E2">
-        <v>1.004268274351686</v>
+        <v>1.06898625276611</v>
       </c>
       <c r="F2">
-        <v>1.015329461764491</v>
+        <v>1.073387369254169</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044235336675886</v>
+        <v>1.045818357153772</v>
       </c>
       <c r="J2">
-        <v>1.018364938565047</v>
+        <v>1.070237108864557</v>
       </c>
       <c r="K2">
-        <v>1.026461651340385</v>
+        <v>1.066516456398953</v>
       </c>
       <c r="L2">
-        <v>1.015668463898246</v>
+        <v>1.071689968184904</v>
       </c>
       <c r="M2">
-        <v>1.026579285260478</v>
+        <v>1.076079364656123</v>
       </c>
       <c r="N2">
-        <v>1.019811133585901</v>
+        <v>1.071756968317057</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008937727666499</v>
+        <v>1.067455819005514</v>
       </c>
       <c r="D3">
-        <v>1.025440135519693</v>
+        <v>1.065498133585349</v>
       </c>
       <c r="E3">
-        <v>1.016583392343105</v>
+        <v>1.071114122387056</v>
       </c>
       <c r="F3">
-        <v>1.026787531312094</v>
+        <v>1.075348224262384</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048933872191152</v>
+        <v>1.046442479031992</v>
       </c>
       <c r="J3">
-        <v>1.029187671531458</v>
+        <v>1.072061487455489</v>
       </c>
       <c r="K3">
-        <v>1.035757532526248</v>
+        <v>1.068028662588434</v>
       </c>
       <c r="L3">
-        <v>1.027008393083036</v>
+        <v>1.073630669320397</v>
       </c>
       <c r="M3">
-        <v>1.037088760159387</v>
+        <v>1.077854333485588</v>
       </c>
       <c r="N3">
-        <v>1.030649236074509</v>
+        <v>1.073583937734847</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016844559605792</v>
+        <v>1.068855993169475</v>
       </c>
       <c r="D4">
-        <v>1.031722719591002</v>
+        <v>1.066591204971827</v>
       </c>
       <c r="E4">
-        <v>1.024154665060696</v>
+        <v>1.072484425594976</v>
       </c>
       <c r="F4">
-        <v>1.033832114382058</v>
+        <v>1.076610593678994</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051798652925815</v>
+        <v>1.046841743645127</v>
       </c>
       <c r="J4">
-        <v>1.035826978734103</v>
+        <v>1.073234900291698</v>
       </c>
       <c r="K4">
-        <v>1.041452780787072</v>
+        <v>1.069000192154893</v>
       </c>
       <c r="L4">
-        <v>1.033970049675281</v>
+        <v>1.074879496306773</v>
       </c>
       <c r="M4">
-        <v>1.043538667812528</v>
+        <v>1.078996017961631</v>
       </c>
       <c r="N4">
-        <v>1.037297971854921</v>
+        <v>1.074759016951875</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020077200094716</v>
+        <v>1.069442998496176</v>
       </c>
       <c r="D5">
-        <v>1.034290729827456</v>
+        <v>1.067049201523925</v>
       </c>
       <c r="E5">
-        <v>1.027251504559378</v>
+        <v>1.073058963823473</v>
       </c>
       <c r="F5">
-        <v>1.036713471030804</v>
+        <v>1.077139786025386</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052964662452711</v>
+        <v>1.047008510047101</v>
       </c>
       <c r="J5">
-        <v>1.03853918244127</v>
+        <v>1.073726540052596</v>
       </c>
       <c r="K5">
-        <v>1.043777507933232</v>
+        <v>1.069406982679317</v>
       </c>
       <c r="L5">
-        <v>1.036815145147938</v>
+        <v>1.075402876404691</v>
       </c>
       <c r="M5">
-        <v>1.046174090807435</v>
+        <v>1.079474375893568</v>
       </c>
       <c r="N5">
-        <v>1.040014027202446</v>
+        <v>1.075251354897626</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020614868234929</v>
+        <v>1.069541464896895</v>
       </c>
       <c r="D6">
-        <v>1.034717813663208</v>
+        <v>1.067126012247233</v>
       </c>
       <c r="E6">
-        <v>1.027766663561482</v>
+        <v>1.073155342208812</v>
       </c>
       <c r="F6">
-        <v>1.037192778510223</v>
+        <v>1.077228552278922</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05315828818519</v>
+        <v>1.047036447641699</v>
       </c>
       <c r="J6">
-        <v>1.038990155670993</v>
+        <v>1.073808991949898</v>
       </c>
       <c r="K6">
-        <v>1.044163944746746</v>
+        <v>1.069475189202544</v>
       </c>
       <c r="L6">
-        <v>1.037288286087927</v>
+        <v>1.075490659807712</v>
       </c>
       <c r="M6">
-        <v>1.046612330060845</v>
+        <v>1.079554601001741</v>
       </c>
       <c r="N6">
-        <v>1.040465640865882</v>
+        <v>1.07533392388608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016888101774552</v>
+        <v>1.068863843109595</v>
       </c>
       <c r="D7">
-        <v>1.03175731205477</v>
+        <v>1.066597330719331</v>
       </c>
       <c r="E7">
-        <v>1.024196372709154</v>
+        <v>1.072492108595249</v>
       </c>
       <c r="F7">
-        <v>1.033870920291281</v>
+        <v>1.07661767065356</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051814379444035</v>
+        <v>1.046843976229657</v>
       </c>
       <c r="J7">
-        <v>1.035863519809353</v>
+        <v>1.073241476097176</v>
       </c>
       <c r="K7">
-        <v>1.041484108756254</v>
+        <v>1.069005634118493</v>
       </c>
       <c r="L7">
-        <v>1.03400837637735</v>
+        <v>1.074886496084028</v>
       </c>
       <c r="M7">
-        <v>1.043574172177973</v>
+        <v>1.079002416073459</v>
       </c>
       <c r="N7">
-        <v>1.037334564822688</v>
+        <v>1.074765602095752</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00050973387971</v>
+        <v>1.066017578758562</v>
       </c>
       <c r="D8">
-        <v>1.018742102099451</v>
+        <v>1.06437445958767</v>
       </c>
       <c r="E8">
-        <v>1.008518428531231</v>
+        <v>1.069706758491091</v>
       </c>
       <c r="F8">
-        <v>1.019283715237158</v>
+        <v>1.074051401645011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045861965861863</v>
+        <v>1.046030239078116</v>
       </c>
       <c r="J8">
-        <v>1.022103160166804</v>
+        <v>1.070855152242937</v>
       </c>
       <c r="K8">
-        <v>1.029674046020419</v>
+        <v>1.067028973437808</v>
       </c>
       <c r="L8">
-        <v>1.019584235496773</v>
+        <v>1.072347293965112</v>
       </c>
       <c r="M8">
-        <v>1.030208661292587</v>
+        <v>1.076680658589154</v>
       </c>
       <c r="N8">
-        <v>1.023554663891112</v>
+        <v>1.072375889387925</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9678772541900161</v>
+        <v>1.060947112338397</v>
       </c>
       <c r="D9">
-        <v>0.9928128535706331</v>
+        <v>1.06040624039954</v>
       </c>
       <c r="E9">
-        <v>0.977345078543419</v>
+        <v>1.064746666511745</v>
       </c>
       <c r="F9">
-        <v>0.9902874889346384</v>
+        <v>1.069478536381993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033824915090203</v>
+        <v>1.044560632707084</v>
       </c>
       <c r="J9">
-        <v>0.994617671779392</v>
+        <v>1.066594429677077</v>
       </c>
       <c r="K9">
-        <v>1.006023623517663</v>
+        <v>1.063491204743464</v>
       </c>
       <c r="L9">
-        <v>0.990816730947124</v>
+        <v>1.067818234959403</v>
       </c>
       <c r="M9">
-        <v>1.00354013520692</v>
+        <v>1.072535635959192</v>
       </c>
       <c r="N9">
-        <v>0.9960301429575603</v>
+        <v>1.068109116107309</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9425925303887506</v>
+        <v>1.05752742379537</v>
       </c>
       <c r="D10">
-        <v>0.9727508295800843</v>
+        <v>1.057724431209534</v>
       </c>
       <c r="E10">
-        <v>0.9532522856335687</v>
+        <v>1.061402714277179</v>
       </c>
       <c r="F10">
-        <v>0.9678954560545724</v>
+        <v>1.066393721080516</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024384375589042</v>
+        <v>1.04355605921462</v>
       </c>
       <c r="J10">
-        <v>0.9732846900798547</v>
+        <v>1.063714404171736</v>
       </c>
       <c r="K10">
-        <v>0.9876301449130013</v>
+        <v>1.061094165274638</v>
       </c>
       <c r="L10">
-        <v>0.9685201955495842</v>
+        <v>1.064759941320083</v>
       </c>
       <c r="M10">
-        <v>0.9828696143489291</v>
+        <v>1.069734129066229</v>
       </c>
       <c r="N10">
-        <v>0.9746668659770827</v>
+        <v>1.065225000635407</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9304772842374889</v>
+        <v>1.056036777779524</v>
       </c>
       <c r="D11">
-        <v>0.963153820378965</v>
+        <v>1.056554136648532</v>
       </c>
       <c r="E11">
-        <v>0.9417283271741551</v>
+        <v>1.059945398943952</v>
       </c>
       <c r="F11">
-        <v>0.9571933855736487</v>
+        <v>1.065048892317129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019837030370042</v>
+        <v>1.043114988259216</v>
       </c>
       <c r="J11">
-        <v>0.9630583198171617</v>
+        <v>1.062457471788774</v>
       </c>
       <c r="K11">
-        <v>0.9788057409214508</v>
+        <v>1.060046678512175</v>
       </c>
       <c r="L11">
-        <v>0.9578396989784155</v>
+        <v>1.063425945210272</v>
       </c>
       <c r="M11">
-        <v>0.9729703889462054</v>
+        <v>1.06851154507286</v>
       </c>
       <c r="N11">
-        <v>0.9644259730956355</v>
+        <v>1.06396628326429</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9257611343117494</v>
+        <v>1.055481551117163</v>
       </c>
       <c r="D12">
-        <v>0.9594213864110145</v>
+        <v>1.056118039985306</v>
       </c>
       <c r="E12">
-        <v>0.9372460336830661</v>
+        <v>1.059402635557801</v>
       </c>
       <c r="F12">
-        <v>0.953032516501595</v>
+        <v>1.064547957079819</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018063690326132</v>
+        <v>1.042950224331989</v>
       </c>
       <c r="J12">
-        <v>0.9590772719021038</v>
+        <v>1.061989068500613</v>
       </c>
       <c r="K12">
-        <v>0.9753696088758335</v>
+        <v>1.059656124884099</v>
       </c>
       <c r="L12">
-        <v>0.9536830538339235</v>
+        <v>1.062928934508986</v>
       </c>
       <c r="M12">
-        <v>0.9691184674882584</v>
+        <v>1.068055954554584</v>
       </c>
       <c r="N12">
-        <v>0.9604392716359056</v>
+        <v>1.063497214789733</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9267833567805059</v>
+        <v>1.055600719322273</v>
       </c>
       <c r="D13">
-        <v>0.960230214188635</v>
+        <v>1.056211648025318</v>
       </c>
       <c r="E13">
-        <v>0.9382173897771944</v>
+        <v>1.059519126566363</v>
       </c>
       <c r="F13">
-        <v>0.9539341288002073</v>
+        <v>1.064655473682305</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018448195206937</v>
+        <v>1.042985609130471</v>
       </c>
       <c r="J13">
-        <v>0.9599401599201661</v>
+        <v>1.062089612163947</v>
       </c>
       <c r="K13">
-        <v>0.9761144212832803</v>
+        <v>1.0597399670743</v>
       </c>
       <c r="L13">
-        <v>0.9545839484962994</v>
+        <v>1.063035613795502</v>
       </c>
       <c r="M13">
-        <v>0.9699532814660601</v>
+        <v>1.068153747351673</v>
       </c>
       <c r="N13">
-        <v>0.9613033850539282</v>
+        <v>1.063597901236601</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9300921409085356</v>
+        <v>1.05599091414756</v>
       </c>
       <c r="D14">
-        <v>0.9628489358054519</v>
+        <v>1.056518117480348</v>
       </c>
       <c r="E14">
-        <v>0.9413622032609558</v>
+        <v>1.059900563828818</v>
       </c>
       <c r="F14">
-        <v>0.9568534778937789</v>
+        <v>1.065007513776915</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01969227189162</v>
+        <v>1.043101387900788</v>
       </c>
       <c r="J14">
-        <v>0.9627332086986217</v>
+        <v>1.062418784727837</v>
       </c>
       <c r="K14">
-        <v>0.978525145959379</v>
+        <v>1.06001442542936</v>
       </c>
       <c r="L14">
-        <v>0.9575002237159127</v>
+        <v>1.063384893104739</v>
       </c>
       <c r="M14">
-        <v>0.9726557850694646</v>
+        <v>1.068473916002468</v>
       </c>
       <c r="N14">
-        <v>0.964100400282016</v>
+        <v>1.063927541263289</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9321007018222125</v>
+        <v>1.056231121310421</v>
       </c>
       <c r="D15">
-        <v>0.9644390842161306</v>
+        <v>1.056706757171187</v>
       </c>
       <c r="E15">
-        <v>0.9432717282882158</v>
+        <v>1.060135386203283</v>
       </c>
       <c r="F15">
-        <v>0.9586263452060882</v>
+        <v>1.065224229746456</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020447077028134</v>
+        <v>1.043172599218553</v>
       </c>
       <c r="J15">
-        <v>0.9644286915036716</v>
+        <v>1.062621395806216</v>
       </c>
       <c r="K15">
-        <v>0.9799884400908463</v>
+        <v>1.06018333237244</v>
       </c>
       <c r="L15">
-        <v>0.9592706647332377</v>
+        <v>1.063599894878941</v>
       </c>
       <c r="M15">
-        <v>0.9742965450383112</v>
+        <v>1.06867098671479</v>
       </c>
       <c r="N15">
-        <v>0.965798290867124</v>
+        <v>1.064130440072639</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9433688346438067</v>
+        <v>1.057626140503567</v>
       </c>
       <c r="D16">
-        <v>0.9733661716714831</v>
+        <v>1.057801905919279</v>
       </c>
       <c r="E16">
-        <v>0.9539911582356118</v>
+        <v>1.061499230424592</v>
       </c>
       <c r="F16">
-        <v>0.9685818382806316</v>
+        <v>1.066482778054602</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024675303207091</v>
+        <v>1.0435852020589</v>
       </c>
       <c r="J16">
-        <v>0.9739399061632363</v>
+        <v>1.063797611370573</v>
       </c>
       <c r="K16">
-        <v>0.9881954072590736</v>
+        <v>1.061163479264907</v>
       </c>
       <c r="L16">
-        <v>0.9692046666440224</v>
+        <v>1.064848265529598</v>
       </c>
       <c r="M16">
-        <v>0.9835040881335928</v>
+        <v>1.06981506418535</v>
       </c>
       <c r="N16">
-        <v>0.9753230125424568</v>
+        <v>1.065308325998011</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9501000276727231</v>
+        <v>1.058498516056009</v>
       </c>
       <c r="D17">
-        <v>0.9787035024541896</v>
+        <v>1.058486414044454</v>
       </c>
       <c r="E17">
-        <v>0.960400046708623</v>
+        <v>1.062352195875701</v>
       </c>
       <c r="F17">
-        <v>0.9745363896634025</v>
+        <v>1.067269771385644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027195308625119</v>
+        <v>1.043842376526082</v>
       </c>
       <c r="J17">
-        <v>0.9796207028068006</v>
+        <v>1.064532751243951</v>
       </c>
       <c r="K17">
-        <v>0.9930955325584614</v>
+        <v>1.061775717312103</v>
       </c>
       <c r="L17">
-        <v>0.9751399586779035</v>
+        <v>1.065628699357245</v>
       </c>
       <c r="M17">
-        <v>0.9890061213058029</v>
+        <v>1.070530139440096</v>
       </c>
       <c r="N17">
-        <v>0.9810118765688511</v>
+        <v>1.06604450985433</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9539169782242211</v>
+        <v>1.059006406149573</v>
       </c>
       <c r="D18">
-        <v>0.9817314080676192</v>
+        <v>1.058884805055958</v>
       </c>
       <c r="E18">
-        <v>0.964036013143296</v>
+        <v>1.062848815986356</v>
       </c>
       <c r="F18">
-        <v>0.9779153211309608</v>
+        <v>1.067727937694059</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028622092735029</v>
+        <v>1.043991796153501</v>
       </c>
       <c r="J18">
-        <v>0.9828415660157372</v>
+        <v>1.06496059712641</v>
       </c>
       <c r="K18">
-        <v>0.9958731125541419</v>
+        <v>1.062131906106343</v>
       </c>
       <c r="L18">
-        <v>0.9785058167674388</v>
+        <v>1.066082976858544</v>
       </c>
       <c r="M18">
-        <v>0.9921264741003895</v>
+        <v>1.070946315552457</v>
       </c>
       <c r="N18">
-        <v>0.984237313772983</v>
+        <v>1.066472963327018</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9552009514013582</v>
+        <v>1.059179423520123</v>
       </c>
       <c r="D19">
-        <v>0.982750160366853</v>
+        <v>1.059020499467643</v>
       </c>
       <c r="E19">
-        <v>0.9652593919422394</v>
+        <v>1.063017999270569</v>
       </c>
       <c r="F19">
-        <v>0.9790523277898437</v>
+        <v>1.067884013627249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029101662401231</v>
+        <v>1.044042645502194</v>
       </c>
       <c r="J19">
-        <v>0.9839249338609193</v>
+        <v>1.065106321815331</v>
       </c>
       <c r="K19">
-        <v>0.996807260370332</v>
+        <v>1.062253202406178</v>
       </c>
       <c r="L19">
-        <v>0.9796380736147311</v>
+        <v>1.066237716203666</v>
       </c>
       <c r="M19">
-        <v>0.993176169521248</v>
+        <v>1.071088066794491</v>
       </c>
       <c r="N19">
-        <v>0.985322220124769</v>
+        <v>1.066618894961712</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9493893838976124</v>
+        <v>1.058405017204394</v>
       </c>
       <c r="D20">
-        <v>0.9781398678227082</v>
+        <v>1.058413063157497</v>
       </c>
       <c r="E20">
-        <v>0.959723240179686</v>
+        <v>1.06226077419121</v>
       </c>
       <c r="F20">
-        <v>0.9739074844553679</v>
+        <v>1.067185425104823</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026929486866395</v>
+        <v>1.04381484485912</v>
       </c>
       <c r="J20">
-        <v>0.9790209990304726</v>
+        <v>1.064453976122239</v>
       </c>
       <c r="K20">
-        <v>0.992578309855891</v>
+        <v>1.061710125304051</v>
       </c>
       <c r="L20">
-        <v>0.9745133150138054</v>
+        <v>1.065545063350116</v>
       </c>
       <c r="M20">
-        <v>0.9884251988342168</v>
+        <v>1.070453513575793</v>
       </c>
       <c r="N20">
-        <v>0.980411321144374</v>
+        <v>1.06596562286291</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9291241506422502</v>
+        <v>1.05587605423672</v>
       </c>
       <c r="D21">
-        <v>0.9620827208283231</v>
+        <v>1.056427908733206</v>
       </c>
       <c r="E21">
-        <v>0.9404420763196761</v>
+        <v>1.05978828049908</v>
       </c>
       <c r="F21">
-        <v>0.9559992662922658</v>
+        <v>1.064903885890155</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019328397772246</v>
+        <v>1.04306731975998</v>
       </c>
       <c r="J21">
-        <v>0.9619160978947999</v>
+        <v>1.062321893977038</v>
       </c>
       <c r="K21">
-        <v>0.9778199059989275</v>
+        <v>1.059933645160921</v>
       </c>
       <c r="L21">
-        <v>0.9566470301925059</v>
+        <v>1.063282080949495</v>
       </c>
       <c r="M21">
-        <v>0.9718651119853318</v>
+        <v>1.068379675167761</v>
       </c>
       <c r="N21">
-        <v>0.9632821290871292</v>
+        <v>1.06383051291651</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9151001630251258</v>
+        <v>1.054277093432737</v>
       </c>
       <c r="D22">
-        <v>0.9509920903169781</v>
+        <v>1.055171661004153</v>
       </c>
       <c r="E22">
-        <v>0.9271215336037979</v>
+        <v>1.058225304208421</v>
       </c>
       <c r="F22">
-        <v>0.9436380185912535</v>
+        <v>1.063461236172887</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014049675483479</v>
+        <v>1.042591928862845</v>
       </c>
       <c r="J22">
-        <v>0.9500784123411742</v>
+        <v>1.060972538951382</v>
       </c>
       <c r="K22">
-        <v>0.9676012003947354</v>
+        <v>1.058808176340345</v>
       </c>
       <c r="L22">
-        <v>0.9442895251755558</v>
+        <v>1.06185052405503</v>
       </c>
       <c r="M22">
-        <v>0.9604152807914819</v>
+        <v>1.067067255058211</v>
       </c>
       <c r="N22">
-        <v>0.9514276326622155</v>
+        <v>1.062479241651944</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9226740142710468</v>
+        <v>1.055125592574371</v>
       </c>
       <c r="D23">
-        <v>0.9569793267189802</v>
+        <v>1.055838402235913</v>
       </c>
       <c r="E23">
-        <v>0.9343131340366692</v>
+        <v>1.059054681032629</v>
       </c>
       <c r="F23">
-        <v>0.9503105041378049</v>
+        <v>1.064226799118583</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016902056888689</v>
+        <v>1.042844459279704</v>
       </c>
       <c r="J23">
-        <v>0.9564713654990663</v>
+        <v>1.061688708471223</v>
       </c>
       <c r="K23">
-        <v>0.9731201838157552</v>
+        <v>1.059405628682522</v>
       </c>
       <c r="L23">
-        <v>0.9509625446490609</v>
+        <v>1.062610261399853</v>
       </c>
       <c r="M23">
-        <v>0.9665976361323427</v>
+        <v>1.067763814244507</v>
       </c>
       <c r="N23">
-        <v>0.957829664546874</v>
+        <v>1.06319642821465</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.949710827916579</v>
+        <v>1.058447268249813</v>
       </c>
       <c r="D24">
-        <v>0.9783948113517766</v>
+        <v>1.058446209955738</v>
       </c>
       <c r="E24">
-        <v>0.9600293731463592</v>
+        <v>1.062302086494896</v>
       </c>
       <c r="F24">
-        <v>0.9741919484749345</v>
+        <v>1.06722354025608</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027049732360664</v>
+        <v>1.043827287043998</v>
       </c>
       <c r="J24">
-        <v>0.9792922632498394</v>
+        <v>1.064489574138785</v>
       </c>
       <c r="K24">
-        <v>0.9928122674696765</v>
+        <v>1.061739766348194</v>
       </c>
       <c r="L24">
-        <v>0.9747967627665955</v>
+        <v>1.065582857753099</v>
       </c>
       <c r="M24">
-        <v>0.9886879650834757</v>
+        <v>1.070488140331757</v>
       </c>
       <c r="N24">
-        <v>0.9806829705900468</v>
+        <v>1.066001271432723</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9768476024481948</v>
+        <v>1.062264710741958</v>
       </c>
       <c r="D25">
-        <v>0.9999380324996793</v>
+        <v>1.061438383489443</v>
       </c>
       <c r="E25">
-        <v>0.9859056731280302</v>
+        <v>1.066035359290731</v>
       </c>
       <c r="F25">
-        <v>0.9982482502203536</v>
+        <v>1.070666962439636</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037153177928614</v>
+        <v>1.044944876486471</v>
       </c>
       <c r="J25">
-        <v>1.002180073363179</v>
+        <v>1.067702743317395</v>
       </c>
       <c r="K25">
-        <v>1.012537310509921</v>
+        <v>1.064412460128706</v>
       </c>
       <c r="L25">
-        <v>0.9987267980949257</v>
+        <v>1.068995803815235</v>
       </c>
       <c r="M25">
-        <v>1.010873820850477</v>
+        <v>1.073613800958981</v>
       </c>
       <c r="N25">
-        <v>1.003603284019016</v>
+        <v>1.069219003680123</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_253/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.065281189239591</v>
+        <v>0.9960659197330677</v>
       </c>
       <c r="D2">
-        <v>1.063798792257822</v>
+        <v>1.015210228942972</v>
       </c>
       <c r="E2">
-        <v>1.06898625276611</v>
+        <v>1.004268274351685</v>
       </c>
       <c r="F2">
-        <v>1.073387369254169</v>
+        <v>1.015329461764489</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045818357153772</v>
+        <v>1.044235336675885</v>
       </c>
       <c r="J2">
-        <v>1.070237108864557</v>
+        <v>1.018364938565045</v>
       </c>
       <c r="K2">
-        <v>1.066516456398953</v>
+        <v>1.026461651340384</v>
       </c>
       <c r="L2">
-        <v>1.071689968184904</v>
+        <v>1.015668463898245</v>
       </c>
       <c r="M2">
-        <v>1.076079364656123</v>
+        <v>1.026579285260476</v>
       </c>
       <c r="N2">
-        <v>1.071756968317057</v>
+        <v>1.019811133585899</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.067455819005514</v>
+        <v>1.008937727666497</v>
       </c>
       <c r="D3">
-        <v>1.065498133585349</v>
+        <v>1.025440135519692</v>
       </c>
       <c r="E3">
-        <v>1.071114122387056</v>
+        <v>1.016583392343103</v>
       </c>
       <c r="F3">
-        <v>1.075348224262384</v>
+        <v>1.026787531312092</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046442479031992</v>
+        <v>1.048933872191151</v>
       </c>
       <c r="J3">
-        <v>1.072061487455489</v>
+        <v>1.029187671531456</v>
       </c>
       <c r="K3">
-        <v>1.068028662588434</v>
+        <v>1.035757532526246</v>
       </c>
       <c r="L3">
-        <v>1.073630669320397</v>
+        <v>1.027008393083033</v>
       </c>
       <c r="M3">
-        <v>1.077854333485588</v>
+        <v>1.037088760159385</v>
       </c>
       <c r="N3">
-        <v>1.073583937734847</v>
+        <v>1.030649236074507</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.068855993169475</v>
+        <v>1.016844559605792</v>
       </c>
       <c r="D4">
-        <v>1.066591204971827</v>
+        <v>1.031722719591002</v>
       </c>
       <c r="E4">
-        <v>1.072484425594976</v>
+        <v>1.024154665060695</v>
       </c>
       <c r="F4">
-        <v>1.076610593678994</v>
+        <v>1.033832114382057</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046841743645127</v>
+        <v>1.051798652925815</v>
       </c>
       <c r="J4">
-        <v>1.073234900291698</v>
+        <v>1.035826978734103</v>
       </c>
       <c r="K4">
-        <v>1.069000192154893</v>
+        <v>1.041452780787072</v>
       </c>
       <c r="L4">
-        <v>1.074879496306773</v>
+        <v>1.03397004967528</v>
       </c>
       <c r="M4">
-        <v>1.078996017961631</v>
+        <v>1.043538667812527</v>
       </c>
       <c r="N4">
-        <v>1.074759016951875</v>
+        <v>1.03729797185492</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.069442998496176</v>
+        <v>1.020077200094717</v>
       </c>
       <c r="D5">
-        <v>1.067049201523925</v>
+        <v>1.034290729827458</v>
       </c>
       <c r="E5">
-        <v>1.073058963823473</v>
+        <v>1.02725150455938</v>
       </c>
       <c r="F5">
-        <v>1.077139786025386</v>
+        <v>1.036713471030805</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047008510047101</v>
+        <v>1.052964662452712</v>
       </c>
       <c r="J5">
-        <v>1.073726540052596</v>
+        <v>1.038539182441272</v>
       </c>
       <c r="K5">
-        <v>1.069406982679317</v>
+        <v>1.043777507933233</v>
       </c>
       <c r="L5">
-        <v>1.075402876404691</v>
+        <v>1.036815145147939</v>
       </c>
       <c r="M5">
-        <v>1.079474375893568</v>
+        <v>1.046174090807436</v>
       </c>
       <c r="N5">
-        <v>1.075251354897626</v>
+        <v>1.040014027202447</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.069541464896895</v>
+        <v>1.020614868234929</v>
       </c>
       <c r="D6">
-        <v>1.067126012247233</v>
+        <v>1.034717813663208</v>
       </c>
       <c r="E6">
-        <v>1.073155342208812</v>
+        <v>1.027766663561482</v>
       </c>
       <c r="F6">
-        <v>1.077228552278922</v>
+        <v>1.037192778510222</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047036447641699</v>
+        <v>1.05315828818519</v>
       </c>
       <c r="J6">
-        <v>1.073808991949898</v>
+        <v>1.038990155670993</v>
       </c>
       <c r="K6">
-        <v>1.069475189202544</v>
+        <v>1.044163944746746</v>
       </c>
       <c r="L6">
-        <v>1.075490659807712</v>
+        <v>1.037288286087927</v>
       </c>
       <c r="M6">
-        <v>1.079554601001741</v>
+        <v>1.046612330060845</v>
       </c>
       <c r="N6">
-        <v>1.07533392388608</v>
+        <v>1.040465640865882</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.068863843109595</v>
+        <v>1.016888101774553</v>
       </c>
       <c r="D7">
-        <v>1.066597330719331</v>
+        <v>1.031757312054771</v>
       </c>
       <c r="E7">
-        <v>1.072492108595249</v>
+        <v>1.024196372709155</v>
       </c>
       <c r="F7">
-        <v>1.07661767065356</v>
+        <v>1.033870920291282</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046843976229657</v>
+        <v>1.051814379444036</v>
       </c>
       <c r="J7">
-        <v>1.073241476097176</v>
+        <v>1.035863519809354</v>
       </c>
       <c r="K7">
-        <v>1.069005634118493</v>
+        <v>1.041484108756255</v>
       </c>
       <c r="L7">
-        <v>1.074886496084028</v>
+        <v>1.034008376377352</v>
       </c>
       <c r="M7">
-        <v>1.079002416073459</v>
+        <v>1.043574172177974</v>
       </c>
       <c r="N7">
-        <v>1.074765602095752</v>
+        <v>1.037334564822689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.066017578758562</v>
+        <v>1.000509733879709</v>
       </c>
       <c r="D8">
-        <v>1.06437445958767</v>
+        <v>1.01874210209945</v>
       </c>
       <c r="E8">
-        <v>1.069706758491091</v>
+        <v>1.00851842853123</v>
       </c>
       <c r="F8">
-        <v>1.074051401645011</v>
+        <v>1.019283715237157</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046030239078116</v>
+        <v>1.045861965861863</v>
       </c>
       <c r="J8">
-        <v>1.070855152242937</v>
+        <v>1.022103160166803</v>
       </c>
       <c r="K8">
-        <v>1.067028973437808</v>
+        <v>1.029674046020418</v>
       </c>
       <c r="L8">
-        <v>1.072347293965112</v>
+        <v>1.019584235496772</v>
       </c>
       <c r="M8">
-        <v>1.076680658589154</v>
+        <v>1.030208661292586</v>
       </c>
       <c r="N8">
-        <v>1.072375889387925</v>
+        <v>1.023554663891111</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060947112338397</v>
+        <v>0.9678772541900164</v>
       </c>
       <c r="D9">
-        <v>1.06040624039954</v>
+        <v>0.9928128535706339</v>
       </c>
       <c r="E9">
-        <v>1.064746666511745</v>
+        <v>0.9773450785434193</v>
       </c>
       <c r="F9">
-        <v>1.069478536381993</v>
+        <v>0.9902874889346389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044560632707084</v>
+        <v>1.033824915090204</v>
       </c>
       <c r="J9">
-        <v>1.066594429677077</v>
+        <v>0.9946176717793923</v>
       </c>
       <c r="K9">
-        <v>1.063491204743464</v>
+        <v>1.006023623517663</v>
       </c>
       <c r="L9">
-        <v>1.067818234959403</v>
+        <v>0.9908167309471244</v>
       </c>
       <c r="M9">
-        <v>1.072535635959192</v>
+        <v>1.003540135206921</v>
       </c>
       <c r="N9">
-        <v>1.068109116107309</v>
+        <v>0.9960301429575606</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>1.05752742379537</v>
+        <v>0.9425925303887487</v>
       </c>
       <c r="D10">
-        <v>1.057724431209534</v>
+        <v>0.9727508295800827</v>
       </c>
       <c r="E10">
-        <v>1.061402714277179</v>
+        <v>0.953252285633567</v>
       </c>
       <c r="F10">
-        <v>1.066393721080516</v>
+        <v>0.9678954560545712</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04355605921462</v>
+        <v>1.024384375589041</v>
       </c>
       <c r="J10">
-        <v>1.063714404171736</v>
+        <v>0.9732846900798533</v>
       </c>
       <c r="K10">
-        <v>1.061094165274638</v>
+        <v>0.9876301449130001</v>
       </c>
       <c r="L10">
-        <v>1.064759941320083</v>
+        <v>0.9685201955495828</v>
       </c>
       <c r="M10">
-        <v>1.069734129066229</v>
+        <v>0.9828696143489282</v>
       </c>
       <c r="N10">
-        <v>1.065225000635407</v>
+        <v>0.9746668659770812</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056036777779524</v>
+        <v>0.93047728423749</v>
       </c>
       <c r="D11">
-        <v>1.056554136648532</v>
+        <v>0.963153820378966</v>
       </c>
       <c r="E11">
-        <v>1.059945398943952</v>
+        <v>0.9417283271741564</v>
       </c>
       <c r="F11">
-        <v>1.065048892317129</v>
+        <v>0.9571933855736496</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043114988259216</v>
+        <v>1.019837030370042</v>
       </c>
       <c r="J11">
-        <v>1.062457471788774</v>
+        <v>0.9630583198171629</v>
       </c>
       <c r="K11">
-        <v>1.060046678512175</v>
+        <v>0.9788057409214516</v>
       </c>
       <c r="L11">
-        <v>1.063425945210272</v>
+        <v>0.9578396989784166</v>
       </c>
       <c r="M11">
-        <v>1.06851154507286</v>
+        <v>0.9729703889462062</v>
       </c>
       <c r="N11">
-        <v>1.06396628326429</v>
+        <v>0.9644259730956367</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.055481551117163</v>
+        <v>0.925761134311746</v>
       </c>
       <c r="D12">
-        <v>1.056118039985306</v>
+        <v>0.959421386411012</v>
       </c>
       <c r="E12">
-        <v>1.059402635557801</v>
+        <v>0.937246033683063</v>
       </c>
       <c r="F12">
-        <v>1.064547957079819</v>
+        <v>0.9530325165015923</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042950224331989</v>
+        <v>1.018063690326131</v>
       </c>
       <c r="J12">
-        <v>1.061989068500613</v>
+        <v>0.959077271902101</v>
       </c>
       <c r="K12">
-        <v>1.059656124884099</v>
+        <v>0.975369608875831</v>
       </c>
       <c r="L12">
-        <v>1.062928934508986</v>
+        <v>0.9536830538339204</v>
       </c>
       <c r="M12">
-        <v>1.068055954554584</v>
+        <v>0.9691184674882558</v>
       </c>
       <c r="N12">
-        <v>1.063497214789733</v>
+        <v>0.9604392716359027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.055600719322273</v>
+        <v>0.9267833567805021</v>
       </c>
       <c r="D13">
-        <v>1.056211648025318</v>
+        <v>0.9602302141886316</v>
       </c>
       <c r="E13">
-        <v>1.059519126566363</v>
+        <v>0.9382173897771904</v>
       </c>
       <c r="F13">
-        <v>1.064655473682305</v>
+        <v>0.9539341288002036</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042985609130471</v>
+        <v>1.018448195206935</v>
       </c>
       <c r="J13">
-        <v>1.062089612163947</v>
+        <v>0.9599401599201625</v>
       </c>
       <c r="K13">
-        <v>1.0597399670743</v>
+        <v>0.9761144212832771</v>
       </c>
       <c r="L13">
-        <v>1.063035613795502</v>
+        <v>0.9545839484962954</v>
       </c>
       <c r="M13">
-        <v>1.068153747351673</v>
+        <v>0.9699532814660566</v>
       </c>
       <c r="N13">
-        <v>1.063597901236601</v>
+        <v>0.9613033850539243</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.05599091414756</v>
+        <v>0.9300921409085288</v>
       </c>
       <c r="D14">
-        <v>1.056518117480348</v>
+        <v>0.9628489358054461</v>
       </c>
       <c r="E14">
-        <v>1.059900563828818</v>
+        <v>0.9413622032609489</v>
       </c>
       <c r="F14">
-        <v>1.065007513776915</v>
+        <v>0.9568534778937723</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043101387900788</v>
+        <v>1.019692271891617</v>
       </c>
       <c r="J14">
-        <v>1.062418784727837</v>
+        <v>0.9627332086986151</v>
       </c>
       <c r="K14">
-        <v>1.06001442542936</v>
+        <v>0.978525145959373</v>
       </c>
       <c r="L14">
-        <v>1.063384893104739</v>
+        <v>0.9575002237159059</v>
       </c>
       <c r="M14">
-        <v>1.068473916002468</v>
+        <v>0.9726557850694582</v>
       </c>
       <c r="N14">
-        <v>1.063927541263289</v>
+        <v>0.9641004002820095</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.056231121310421</v>
+        <v>0.9321007018222098</v>
       </c>
       <c r="D15">
-        <v>1.056706757171187</v>
+        <v>0.9644390842161282</v>
       </c>
       <c r="E15">
-        <v>1.060135386203283</v>
+        <v>0.9432717282882132</v>
       </c>
       <c r="F15">
-        <v>1.065224229746456</v>
+        <v>0.958626345206086</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043172599218553</v>
+        <v>1.020447077028133</v>
       </c>
       <c r="J15">
-        <v>1.062621395806216</v>
+        <v>0.9644286915036691</v>
       </c>
       <c r="K15">
-        <v>1.06018333237244</v>
+        <v>0.9799884400908441</v>
       </c>
       <c r="L15">
-        <v>1.063599894878941</v>
+        <v>0.9592706647332351</v>
       </c>
       <c r="M15">
-        <v>1.06867098671479</v>
+        <v>0.9742965450383089</v>
       </c>
       <c r="N15">
-        <v>1.064130440072639</v>
+        <v>0.9657982908671214</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057626140503567</v>
+        <v>0.9433688346438064</v>
       </c>
       <c r="D16">
-        <v>1.057801905919279</v>
+        <v>0.9733661716714829</v>
       </c>
       <c r="E16">
-        <v>1.061499230424592</v>
+        <v>0.9539911582356114</v>
       </c>
       <c r="F16">
-        <v>1.066482778054602</v>
+        <v>0.9685818382806314</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0435852020589</v>
+        <v>1.024675303207091</v>
       </c>
       <c r="J16">
-        <v>1.063797611370573</v>
+        <v>0.9739399061632361</v>
       </c>
       <c r="K16">
-        <v>1.061163479264907</v>
+        <v>0.9881954072590734</v>
       </c>
       <c r="L16">
-        <v>1.064848265529598</v>
+        <v>0.9692046666440219</v>
       </c>
       <c r="M16">
-        <v>1.06981506418535</v>
+        <v>0.9835040881335925</v>
       </c>
       <c r="N16">
-        <v>1.065308325998011</v>
+        <v>0.9753230125424567</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058498516056009</v>
+        <v>0.9501000276727285</v>
       </c>
       <c r="D17">
-        <v>1.058486414044454</v>
+        <v>0.9787035024541938</v>
       </c>
       <c r="E17">
-        <v>1.062352195875701</v>
+        <v>0.9604000467086287</v>
       </c>
       <c r="F17">
-        <v>1.067269771385644</v>
+        <v>0.9745363896634072</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043842376526082</v>
+        <v>1.027195308625121</v>
       </c>
       <c r="J17">
-        <v>1.064532751243951</v>
+        <v>0.9796207028068057</v>
       </c>
       <c r="K17">
-        <v>1.061775717312103</v>
+        <v>0.9930955325584652</v>
       </c>
       <c r="L17">
-        <v>1.065628699357245</v>
+        <v>0.975139958677909</v>
       </c>
       <c r="M17">
-        <v>1.070530139440096</v>
+        <v>0.9890061213058073</v>
       </c>
       <c r="N17">
-        <v>1.06604450985433</v>
+        <v>0.9810118765688566</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059006406149573</v>
+        <v>0.9539169782242187</v>
       </c>
       <c r="D18">
-        <v>1.058884805055958</v>
+        <v>0.9817314080676174</v>
       </c>
       <c r="E18">
-        <v>1.062848815986356</v>
+        <v>0.9640360131432937</v>
       </c>
       <c r="F18">
-        <v>1.067727937694059</v>
+        <v>0.9779153211309594</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043991796153501</v>
+        <v>1.028622092735028</v>
       </c>
       <c r="J18">
-        <v>1.06496059712641</v>
+        <v>0.982841566015735</v>
       </c>
       <c r="K18">
-        <v>1.062131906106343</v>
+        <v>0.9958731125541402</v>
       </c>
       <c r="L18">
-        <v>1.066082976858544</v>
+        <v>0.9785058167674365</v>
       </c>
       <c r="M18">
-        <v>1.070946315552457</v>
+        <v>0.9921264741003877</v>
       </c>
       <c r="N18">
-        <v>1.066472963327018</v>
+        <v>0.9842373137729805</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059179423520123</v>
+        <v>0.9552009514013611</v>
       </c>
       <c r="D19">
-        <v>1.059020499467643</v>
+        <v>0.9827501603668554</v>
       </c>
       <c r="E19">
-        <v>1.063017999270569</v>
+        <v>0.9652593919422422</v>
       </c>
       <c r="F19">
-        <v>1.067884013627249</v>
+        <v>0.9790523277898465</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044042645502194</v>
+        <v>1.029101662401232</v>
       </c>
       <c r="J19">
-        <v>1.065106321815331</v>
+        <v>0.9839249338609219</v>
       </c>
       <c r="K19">
-        <v>1.062253202406178</v>
+        <v>0.9968072603703341</v>
       </c>
       <c r="L19">
-        <v>1.066237716203666</v>
+        <v>0.9796380736147338</v>
       </c>
       <c r="M19">
-        <v>1.071088066794491</v>
+        <v>0.9931761695212507</v>
       </c>
       <c r="N19">
-        <v>1.066618894961712</v>
+        <v>0.985322220124772</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.058405017204394</v>
+        <v>0.9493893838976113</v>
       </c>
       <c r="D20">
-        <v>1.058413063157497</v>
+        <v>0.9781398678227077</v>
       </c>
       <c r="E20">
-        <v>1.06226077419121</v>
+        <v>0.9597232401796851</v>
       </c>
       <c r="F20">
-        <v>1.067185425104823</v>
+        <v>0.973907484455367</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04381484485912</v>
+        <v>1.026929486866395</v>
       </c>
       <c r="J20">
-        <v>1.064453976122239</v>
+        <v>0.9790209990304716</v>
       </c>
       <c r="K20">
-        <v>1.061710125304051</v>
+        <v>0.9925783098558901</v>
       </c>
       <c r="L20">
-        <v>1.065545063350116</v>
+        <v>0.9745133150138043</v>
       </c>
       <c r="M20">
-        <v>1.070453513575793</v>
+        <v>0.988425198834216</v>
       </c>
       <c r="N20">
-        <v>1.06596562286291</v>
+        <v>0.9804113211443731</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.05587605423672</v>
+        <v>0.9291241506422457</v>
       </c>
       <c r="D21">
-        <v>1.056427908733206</v>
+        <v>0.9620827208283194</v>
       </c>
       <c r="E21">
-        <v>1.05978828049908</v>
+        <v>0.9404420763196719</v>
       </c>
       <c r="F21">
-        <v>1.064903885890155</v>
+        <v>0.9559992662922616</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04306731975998</v>
+        <v>1.019328397772244</v>
       </c>
       <c r="J21">
-        <v>1.062321893977038</v>
+        <v>0.9619160978947958</v>
       </c>
       <c r="K21">
-        <v>1.059933645160921</v>
+        <v>0.9778199059989239</v>
       </c>
       <c r="L21">
-        <v>1.063282080949495</v>
+        <v>0.9566470301925019</v>
       </c>
       <c r="M21">
-        <v>1.068379675167761</v>
+        <v>0.9718651119853277</v>
       </c>
       <c r="N21">
-        <v>1.06383051291651</v>
+        <v>0.9632821290871248</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.054277093432737</v>
+        <v>0.9151001630251233</v>
       </c>
       <c r="D22">
-        <v>1.055171661004153</v>
+        <v>0.9509920903169756</v>
       </c>
       <c r="E22">
-        <v>1.058225304208421</v>
+        <v>0.9271215336037955</v>
       </c>
       <c r="F22">
-        <v>1.063461236172887</v>
+        <v>0.9436380185912506</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042591928862845</v>
+        <v>1.014049675483477</v>
       </c>
       <c r="J22">
-        <v>1.060972538951382</v>
+        <v>0.9500784123411715</v>
       </c>
       <c r="K22">
-        <v>1.058808176340345</v>
+        <v>0.9676012003947329</v>
       </c>
       <c r="L22">
-        <v>1.06185052405503</v>
+        <v>0.9442895251755531</v>
       </c>
       <c r="M22">
-        <v>1.067067255058211</v>
+        <v>0.9604152807914792</v>
       </c>
       <c r="N22">
-        <v>1.062479241651944</v>
+        <v>0.951427632662213</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.055125592574371</v>
+        <v>0.9226740142710421</v>
       </c>
       <c r="D23">
-        <v>1.055838402235913</v>
+        <v>0.9569793267189767</v>
       </c>
       <c r="E23">
-        <v>1.059054681032629</v>
+        <v>0.9343131340366646</v>
       </c>
       <c r="F23">
-        <v>1.064226799118583</v>
+        <v>0.9503105041378012</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042844459279704</v>
+        <v>1.016902056888687</v>
       </c>
       <c r="J23">
-        <v>1.061688708471223</v>
+        <v>0.9564713654990621</v>
       </c>
       <c r="K23">
-        <v>1.059405628682522</v>
+        <v>0.9731201838157518</v>
       </c>
       <c r="L23">
-        <v>1.062610261399853</v>
+        <v>0.9509625446490566</v>
       </c>
       <c r="M23">
-        <v>1.067763814244507</v>
+        <v>0.966597636132339</v>
       </c>
       <c r="N23">
-        <v>1.06319642821465</v>
+        <v>0.9578296645468699</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058447268249813</v>
+        <v>0.9497108279165806</v>
       </c>
       <c r="D24">
-        <v>1.058446209955738</v>
+        <v>0.9783948113517779</v>
       </c>
       <c r="E24">
-        <v>1.062302086494896</v>
+        <v>0.9600293731463605</v>
       </c>
       <c r="F24">
-        <v>1.06722354025608</v>
+        <v>0.9741919484749362</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043827287043998</v>
+        <v>1.027049732360665</v>
       </c>
       <c r="J24">
-        <v>1.064489574138785</v>
+        <v>0.9792922632498409</v>
       </c>
       <c r="K24">
-        <v>1.061739766348194</v>
+        <v>0.9928122674696777</v>
       </c>
       <c r="L24">
-        <v>1.065582857753099</v>
+        <v>0.9747967627665969</v>
       </c>
       <c r="M24">
-        <v>1.070488140331757</v>
+        <v>0.9886879650834771</v>
       </c>
       <c r="N24">
-        <v>1.066001271432723</v>
+        <v>0.9806829705900481</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.062264710741958</v>
+        <v>0.9768476024481928</v>
       </c>
       <c r="D25">
-        <v>1.061438383489443</v>
+        <v>0.9999380324996775</v>
       </c>
       <c r="E25">
-        <v>1.066035359290731</v>
+        <v>0.9859056731280283</v>
       </c>
       <c r="F25">
-        <v>1.070666962439636</v>
+        <v>0.9982482502203512</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044944876486471</v>
+        <v>1.037153177928613</v>
       </c>
       <c r="J25">
-        <v>1.067702743317395</v>
+        <v>1.002180073363177</v>
       </c>
       <c r="K25">
-        <v>1.064412460128706</v>
+        <v>1.012537310509919</v>
       </c>
       <c r="L25">
-        <v>1.068995803815235</v>
+        <v>0.9987267980949238</v>
       </c>
       <c r="M25">
-        <v>1.073613800958981</v>
+        <v>1.010873820850475</v>
       </c>
       <c r="N25">
-        <v>1.069219003680123</v>
+        <v>1.003603284019014</v>
       </c>
     </row>
   </sheetData>
